--- a/api/src/data/classements_EFREI PARIS.xlsx
+++ b/api/src/data/classements_EFREI PARIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -75,91 +75,73 @@
     <x:t>ExAequo</x:t>
   </x:si>
   <x:si>
-    <x:t>BBME2A - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
+    <x:t>BBME2B - BASKET BALL (NIVEAU 2 : GRANDES ECOLES - M)</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>ECE PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
+    <x:t>EFREI PARIS</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EPF CACHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
   </x:si>
   <x:si>
     <x:t>ESIEE PARIS</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EFREI PARIS</x:t>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMCP Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-31</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESCP BUSINESS SCHOOL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PSB PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-130</x:t>
+    <x:t>ESTP PARIS (2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-40</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -545,7 +527,7 @@
     <x:col min="20" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="16.010625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="14.900625" style="1" customWidth="1"/>
     <x:col min="4" max="19" width="12.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -637,7 +619,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J2" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K2" s="1" t="s">
         <x:v>24</x:v>
@@ -672,55 +654,55 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="D3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s">
+      <x:c r="Q3" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
+      <x:c r="R3" s="1" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="N3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="O3" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P3" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="Q3" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="R3" s="1" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="S3" s="1" t="s">
         <x:v>20</x:v>
@@ -731,16 +713,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
         <x:v>24</x:v>
@@ -752,10 +734,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
         <x:v>24</x:v>
@@ -773,13 +755,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P4" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q4" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="R4" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="S4" s="1" t="s">
         <x:v>20</x:v>
@@ -793,25 +775,25 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
         <x:v>24</x:v>
@@ -832,13 +814,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P5" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q5" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="R5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="S5" s="1" t="s">
         <x:v>20</x:v>
@@ -849,16 +831,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
         <x:v>24</x:v>
@@ -870,13 +852,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
         <x:v>24</x:v>
@@ -891,13 +873,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P6" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q6" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="R6" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S6" s="1" t="s">
         <x:v>20</x:v>

--- a/api/src/data/classements_EFREI PARIS.xlsx
+++ b/api/src/data/classements_EFREI PARIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t>Poule</x:t>
   </x:si>
@@ -81,55 +81,67 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
+    <x:t>ESIEE PARIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>EFREI PARIS</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
   </x:si>
   <x:si>
     <x:t>EPF CACHAN</x:t>
   </x:si>
   <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESIEE PARIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26</x:t>
   </x:si>
   <x:si>
     <x:t>IMCP Sport</x:t>
   </x:si>
   <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-31</x:t>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-101</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -142,6 +154,111 @@
   </x:si>
   <x:si>
     <x:t>-40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBME3C - BASKET BALL (NIVEAU 3 : GRANDES ECOLES - M)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESO SPORTING CLUB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EPISPORT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICAM GRAND PARIS SUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSTITUT MINES TELECOM EVRY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EN VETERINAIRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SORBONNE UNIVERSITE LETTRES (3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESIEA PARIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-56</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -518,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S11"/>
+  <x:dimension ref="A1:S19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -527,7 +644,7 @@
     <x:col min="20" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="16.010625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="12.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="14.900625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="16.010625" style="1" customWidth="1"/>
     <x:col min="4" max="19" width="12.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -654,31 +771,31 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
         <x:v>24</x:v>
@@ -696,13 +813,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="R3" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S3" s="1" t="s">
         <x:v>20</x:v>
@@ -713,16 +830,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
         <x:v>24</x:v>
@@ -734,10 +851,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
         <x:v>24</x:v>
@@ -755,13 +872,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q4" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="R4" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="S4" s="1" t="s">
         <x:v>20</x:v>
@@ -775,13 +892,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
         <x:v>24</x:v>
@@ -793,7 +910,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
         <x:v>24</x:v>
@@ -814,13 +931,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P5" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="Q5" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="R5" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S5" s="1" t="s">
         <x:v>20</x:v>
@@ -831,16 +948,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
         <x:v>24</x:v>
@@ -852,13 +969,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
         <x:v>24</x:v>
@@ -876,20 +993,492 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="Q6" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="R6" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="S6" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="8" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="9" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="10" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="11" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="7" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O7" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P7" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Q7" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="R7" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="S7" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O8" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P8" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="Q8" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="R8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="S8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J9" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O9" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P9" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="Q9" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="R9" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="S9" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O10" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P10" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="Q10" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="R10" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O11" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P11" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q11" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R11" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S11" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O12" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P12" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="Q12" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="R12" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="S12" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P13" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q13" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="R13" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="S13" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:19" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A14" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K14" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O14" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P14" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q14" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="R14" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S14" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="16" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="17" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="18" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="19" spans="1:19" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:autoFilter ref="A1:S1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
